--- a/excel/finished/wg8#高炉/8高炉上料装料日报表.xlsx
+++ b/excel/finished/wg8#高炉/8高炉上料装料日报表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="72">
   <si>
     <t xml:space="preserve">                    8高炉上料装料日报表</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>矿石总量</t>
+  </si>
+  <si>
+    <t>焦炭总量</t>
   </si>
   <si>
     <t>DateTime</t>
@@ -1486,7 +1489,7 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="L10" sqref="L10"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1674,7 +1677,9 @@
       <c r="G4" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="17"/>
+      <c r="H4" s="17" t="s">
+        <v>31</v>
+      </c>
       <c r="I4" s="17" t="s">
         <v>15</v>
       </c>
@@ -3890,7 +3895,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B1">
         <v>44014.2604172107</v>
@@ -3898,92 +3903,92 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B13" t="s">
         <v>2</v>
@@ -3991,12 +3996,12 @@
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B15" t="s">
         <v>2</v>
@@ -4004,55 +4009,55 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B21" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B22">
         <v>44013.000000544</v>
@@ -4060,7 +4065,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B23">
         <v>43831.2604172107</v>
@@ -4085,7 +4090,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B1">
         <v>8</v>

--- a/excel/finished/wg8#高炉/8高炉上料装料日报表.xlsx
+++ b/excel/finished/wg8#高炉/8高炉上料装料日报表.xlsx
@@ -103,7 +103,7 @@
     <t>batchIndex.matrixno</t>
   </si>
   <si>
-    <t>batchIndex.batchno</t>
+    <t>indexInDay</t>
   </si>
   <si>
     <t>N/A</t>
@@ -1489,7 +1489,7 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/excel/finished/wg8#高炉/8高炉上料装料日报表.xlsx
+++ b/excel/finished/wg8#高炉/8高炉上料装料日报表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="72">
   <si>
     <t xml:space="preserve">                    8高炉上料装料日报表</t>
   </si>
@@ -64,10 +64,10 @@
     <t>熔剂t</t>
   </si>
   <si>
-    <t>焦丁</t>
-  </si>
-  <si>
-    <t>回用焦</t>
+    <t>{coke_start}</t>
+  </si>
+  <si>
+    <t>{coke_end}</t>
   </si>
   <si>
     <t>大烧</t>
@@ -1514,7 +1514,7 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
+      <selection pane="bottomLeft" activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1706,15 +1706,11 @@
       <c r="H4" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="22" t="s">
-        <v>15</v>
-      </c>
+      <c r="I4" s="22"/>
       <c r="J4" s="22"/>
       <c r="K4" s="22"/>
       <c r="L4" s="22"/>
-      <c r="M4" s="22" t="s">
-        <v>16</v>
-      </c>
+      <c r="M4" s="22"/>
       <c r="N4" s="30" t="s">
         <v>17</v>
       </c>
